--- a/www/ig/fhir/eclaire/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
+++ b/www/ig/fhir/eclaire/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T12:15:34+00:00</t>
+    <t>2023-10-24T08:19:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/eclaire/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
+++ b/www/ig/fhir/eclaire/CodeSystem-eclaire-reglementation-precision-code-system.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T08:19:05+00:00</t>
+    <t>2024-02-26T13:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>Level</t>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>EP-Cas 2 (DM)</t>
+  </si>
+  <si>
+    <t>EP-Cas-3</t>
+  </si>
+  <si>
+    <t>EP-Cas 3 (DM)</t>
   </si>
   <si>
     <t>cat1-jarde</t>
@@ -350,10 +356,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -539,7 +545,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -751,6 +757,18 @@
       </c>
       <c r="D17" s="2"/>
     </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
